--- a/rna_atom_types.xlsx
+++ b/rna_atom_types.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Documents/GitHub/Pro-RNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26C1D1FD-503E-384E-94FA-BDFD812E0B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBA21CE-52D3-2443-8A06-2DABFFF7CB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="1920" windowWidth="27440" windowHeight="16240" xr2:uid="{BCA1DA0C-B6AE-CE46-9725-31A56C2901E4}"/>
   </bookViews>
@@ -384,24 +384,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color theme="1" tint="0.14996795556505021"/>
@@ -423,23 +406,22 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1" tint="0.14996795556505021"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
+          <bgColor theme="1" tint="0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -775,7 +757,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{635EA1A7-208F-4542-95BD-251F853B3155}">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2762,11 +2746,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:G86">
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
